--- a/data/trans_orig/P16B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6A46671-ABCF-46C5-8A3A-C6A82AFF7F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5C2A65-616D-4233-8506-6461A6625D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9140393D-7A23-44FE-8971-DCB06DA64350}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B70E69B1-9861-4999-BE96-E8F6C71596A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="177">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>90,24%</t>
   </si>
   <si>
-    <t>64,61%</t>
+    <t>55,93%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>91,32%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>85,1%</t>
+    <t>84,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,39%</t>
+    <t>44,07%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>8,68%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>14,9%</t>
+    <t>15,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,19 +127,19 @@
     <t>91,49%</t>
   </si>
   <si>
-    <t>73,01%</t>
+    <t>73,54%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>91,47%</t>
+    <t>93,07%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>89,48%</t>
+    <t>88,84%</t>
   </si>
   <si>
     <t>99,12%</t>
@@ -148,13 +148,13 @@
     <t>8,51%</t>
   </si>
   <si>
-    <t>26,99%</t>
+    <t>26,46%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>8,53%</t>
+    <t>6,93%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -163,7 +163,7 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>10,52%</t>
+    <t>11,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -172,7 +172,7 @@
     <t>91,57%</t>
   </si>
   <si>
-    <t>71,5%</t>
+    <t>69,74%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -181,13 +181,13 @@
     <t>95,48%</t>
   </si>
   <si>
-    <t>85,27%</t>
+    <t>85,71%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>28,5%</t>
+    <t>30,26%</t>
   </si>
   <si>
     <t>0%</t>
@@ -199,55 +199,55 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>14,73%</t>
+    <t>14,29%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -262,13 +262,10 @@
     <t>98,32%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,95%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -277,13 +274,10 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,05%</t>
   </si>
   <si>
     <t>96,91%</t>
@@ -292,13 +286,13 @@
     <t>99,04%</t>
   </si>
   <si>
-    <t>95,15%</t>
+    <t>95,58%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>96,77%</t>
+    <t>97,15%</t>
   </si>
   <si>
     <t>3,09%</t>
@@ -307,13 +301,13 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -322,19 +316,19 @@
     <t>87,24%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -343,19 +337,19 @@
     <t>12,76%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -364,16 +358,16 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -382,16 +376,16 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2015 (Tasa respuesta: 4,17%)</t>
@@ -400,181 +394,181 @@
     <t>94,91%</t>
   </si>
   <si>
-    <t>69,36%</t>
+    <t>68,74%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>85,12%</t>
+    <t>87,75%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>89,67%</t>
+    <t>89,09%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>30,64%</t>
+    <t>31,26%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>14,88%</t>
+    <t>12,25%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>10,91%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>89,65%</t>
+    <t>89,12%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>97,06%</t>
   </si>
   <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>10,35%</t>
+    <t>10,88%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>74,75%</t>
+    <t>74,15%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>78,74%</t>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
 </sst>
 </file>
@@ -986,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2237845-9F6C-495C-851F-C3DCF7A78956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB8A36-CBD6-4785-8FAB-833BCF7B81AF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EC6D38-C173-4DBA-8D5F-690DCFFB0B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EAC98-BA12-4F79-9C41-B14AC10E1EF7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1879,7 +1873,7 @@
         <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1891,10 +1885,10 @@
         <v>83773</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1918,7 +1912,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1927,13 +1921,13 @@
         <v>981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1942,13 +1936,13 @@
         <v>981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -2031,10 +2025,10 @@
         <v>101901</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2046,10 +2040,10 @@
         <v>167175</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2073,7 +2067,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2082,13 +2076,13 @@
         <v>983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2097,13 +2091,13 @@
         <v>983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2186,13 +2180,13 @@
         <v>28731</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -2201,13 +2195,13 @@
         <v>51755</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,7 +2222,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2237,13 +2231,13 @@
         <v>4202</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2252,13 +2246,13 @@
         <v>4202</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -2338,16 +2332,16 @@
         <v>176</v>
       </c>
       <c r="I13" s="7">
-        <v>187960</v>
+        <v>187959</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>280</v>
@@ -2359,10 +2353,10 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,7 +2377,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2392,13 +2386,13 @@
         <v>6166</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2410,10 +2404,10 @@
         <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2434,7 @@
         <v>182</v>
       </c>
       <c r="I15" s="7">
-        <v>194126</v>
+        <v>194125</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2488,7 +2482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FF2B1B-C3F8-4A9E-ABE5-02E11ECFF74D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89311D23-B22C-45ED-9D68-1C1B175C8D0D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2505,7 +2499,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2612,10 +2606,10 @@
         <v>19066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2627,10 +2621,10 @@
         <v>38847</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2642,10 +2636,10 @@
         <v>57914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2663,13 +2657,13 @@
         <v>1022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2678,13 +2672,13 @@
         <v>985</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2693,13 +2687,13 @@
         <v>2006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,10 +2761,10 @@
         <v>56451</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2782,13 +2776,13 @@
         <v>107002</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -2797,13 +2791,13 @@
         <v>163452</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2812,13 @@
         <v>1929</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2833,13 +2827,13 @@
         <v>3022</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2848,13 +2842,13 @@
         <v>4951</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2916,13 @@
         <v>20095</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2937,10 +2931,10 @@
         <v>36859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2952,13 +2946,13 @@
         <v>56954</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2967,13 @@
         <v>3650</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2988,13 +2982,13 @@
         <v>1819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3003,13 +2997,13 @@
         <v>5469</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3071,13 @@
         <v>95612</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -3092,13 +3086,13 @@
         <v>182707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -3107,13 +3101,13 @@
         <v>278319</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3122,13 @@
         <v>6601</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3143,13 +3137,13 @@
         <v>5826</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3158,13 +3152,13 @@
         <v>12427</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5C2A65-616D-4233-8506-6461A6625D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC3D264-8520-4557-8057-AC27E5397093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B70E69B1-9861-4999-BE96-E8F6C71596A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7215495-9A4B-4E66-A447-7D782C9610C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="175">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>90,24%</t>
   </si>
   <si>
-    <t>55,93%</t>
+    <t>58,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>91,32%</t>
+    <t>89,65%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>84,8%</t>
+    <t>86,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>44,07%</t>
+    <t>41,26%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>8,68%</t>
+    <t>10,35%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>15,2%</t>
+    <t>13,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,43 +127,43 @@
     <t>91,49%</t>
   </si>
   <si>
-    <t>73,54%</t>
+    <t>71,94%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>93,07%</t>
+    <t>91,7%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>26,46%</t>
+    <t>28,06%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>6,93%</t>
+    <t>8,3%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -172,7 +172,7 @@
     <t>91,57%</t>
   </si>
   <si>
-    <t>69,74%</t>
+    <t>70,84%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -181,13 +181,13 @@
     <t>95,48%</t>
   </si>
   <si>
-    <t>85,71%</t>
+    <t>86,25%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>30,26%</t>
+    <t>29,16%</t>
   </si>
   <si>
     <t>0%</t>
@@ -199,55 +199,55 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>14,29%</t>
+    <t>13,75%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -262,10 +262,13 @@
     <t>98,32%</t>
   </si>
   <si>
+    <t>91,36%</t>
+  </si>
+  <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>94,95%</t>
+    <t>93,77%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -274,10 +277,13 @@
     <t>1,68%</t>
   </si>
   <si>
+    <t>8,64%</t>
+  </si>
+  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>5,05%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>96,91%</t>
@@ -286,13 +292,13 @@
     <t>99,04%</t>
   </si>
   <si>
-    <t>95,58%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>97,15%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>3,09%</t>
@@ -301,13 +307,13 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,42%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,85%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -316,19 +322,19 @@
     <t>87,24%</t>
   </si>
   <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -337,19 +343,19 @@
     <t>12,76%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -358,217 +364,205 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,58%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para la alergia recetados en 2015 (Tasa respuesta: 4,17%)</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>74,15%</t>
+    <t>80,53%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>77,76%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>25,85%</t>
+    <t>19,47%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>22,24%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
 </sst>
 </file>
@@ -980,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB8A36-CBD6-4785-8FAB-833BCF7B81AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64927128-D968-4979-9609-C262DFAC9F57}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1731,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EAC98-BA12-4F79-9C41-B14AC10E1EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71092C6E-3931-41C8-B1A4-B75D45F71CF6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1873,7 +1867,7 @@
         <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1885,10 +1879,10 @@
         <v>83773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1912,7 +1906,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1921,13 +1915,13 @@
         <v>981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1936,13 +1930,13 @@
         <v>981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -2025,10 +2019,10 @@
         <v>101901</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2040,10 +2034,10 @@
         <v>167175</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2067,7 +2061,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2076,13 +2070,13 @@
         <v>983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2091,13 +2085,13 @@
         <v>983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2162,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2180,13 +2174,13 @@
         <v>28731</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -2195,13 +2189,13 @@
         <v>51755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,7 +2216,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2231,13 +2225,13 @@
         <v>4202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2246,13 +2240,13 @@
         <v>4202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2317,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -2332,16 +2326,16 @@
         <v>176</v>
       </c>
       <c r="I13" s="7">
-        <v>187959</v>
+        <v>187960</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>280</v>
@@ -2353,10 +2347,10 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,7 +2371,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2386,13 +2380,13 @@
         <v>6166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2404,10 +2398,10 @@
         <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2428,7 @@
         <v>182</v>
       </c>
       <c r="I15" s="7">
-        <v>194125</v>
+        <v>194126</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2482,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89311D23-B22C-45ED-9D68-1C1B175C8D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF7E410-6294-4C4B-9DEB-FD9899A8F995}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2499,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2606,10 +2600,10 @@
         <v>19066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2621,10 +2615,10 @@
         <v>38847</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2636,10 +2630,10 @@
         <v>57914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2657,13 +2651,13 @@
         <v>1022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2672,13 +2666,13 @@
         <v>985</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2687,7 +2681,7 @@
         <v>2006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
@@ -2952,7 +2946,7 @@
         <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2961,13 @@
         <v>3650</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2982,13 +2976,13 @@
         <v>1819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2997,13 +2991,13 @@
         <v>5469</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3065,13 @@
         <v>95612</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -3086,13 +3080,13 @@
         <v>182707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -3101,13 +3095,13 @@
         <v>278319</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3116,13 @@
         <v>6601</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3137,13 +3131,13 @@
         <v>5826</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3152,13 +3146,13 @@
         <v>12427</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC3D264-8520-4557-8057-AC27E5397093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BCE4C15-9D88-4907-B2EA-56F4FCA9EFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7215495-9A4B-4E66-A447-7D782C9610C1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3B72827-4970-4F6C-B98A-AC36E2BE492E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>58,74%</t>
+    <t>64,61%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,484 +85,496 @@
     <t>98,0%</t>
   </si>
   <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para la alergia recetados en 2012 (Tasa respuesta: 4,4%)</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para la alergia recetados en 2012 (Tasa respuesta: 4,4%)</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>80,53%</t>
+    <t>74,75%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>77,76%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>19,47%</t>
+    <t>25,25%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>22,24%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
 </sst>
 </file>
@@ -974,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64927128-D968-4979-9609-C262DFAC9F57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7419B87F-2C6A-44CD-A558-AD2DB9333DB7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71092C6E-3931-41C8-B1A4-B75D45F71CF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8C8F5-6095-4B30-AD9F-AA276E98A758}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2476,7 +2488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF7E410-6294-4C4B-9DEB-FD9899A8F995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED3E685-3E07-4C6D-85A8-7CE389597828}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2630,10 +2642,10 @@
         <v>57914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2651,13 +2663,13 @@
         <v>1022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2666,13 +2678,13 @@
         <v>985</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2681,13 +2693,13 @@
         <v>2006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,10 +2767,10 @@
         <v>56451</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2770,13 +2782,13 @@
         <v>107002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -2785,13 +2797,13 @@
         <v>163452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2818,13 @@
         <v>1929</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2821,13 +2833,13 @@
         <v>3022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2836,13 +2848,13 @@
         <v>4951</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2922,13 @@
         <v>20095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2925,10 +2937,10 @@
         <v>36859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2940,13 +2952,13 @@
         <v>56954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2973,13 @@
         <v>3650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2976,13 +2988,13 @@
         <v>1819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2991,13 +3003,13 @@
         <v>5469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3077,13 @@
         <v>95612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -3083,10 +3095,10 @@
         <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -3095,13 +3107,13 @@
         <v>278319</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3128,13 @@
         <v>6601</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3134,10 +3146,10 @@
         <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3146,13 +3158,13 @@
         <v>12427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BCE4C15-9D88-4907-B2EA-56F4FCA9EFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C973F1C1-8810-45BE-82C6-FB27E3DDA081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3B72827-4970-4F6C-B98A-AC36E2BE492E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{321EB2B4-7811-4821-997B-11D85D953C59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -986,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7419B87F-2C6A-44CD-A558-AD2DB9333DB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7B6F40-318A-49EE-8829-77485D2FF5DE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC8C8F5-6095-4B30-AD9F-AA276E98A758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB04C41-2111-47FF-B66A-16181A286A39}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2338,7 +2338,7 @@
         <v>176</v>
       </c>
       <c r="I13" s="7">
-        <v>187960</v>
+        <v>187959</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>107</v>
@@ -2440,7 +2440,7 @@
         <v>182</v>
       </c>
       <c r="I15" s="7">
-        <v>194126</v>
+        <v>194125</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2488,7 +2488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED3E685-3E07-4C6D-85A8-7CE389597828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B03094-7710-4A56-AA43-2282320C3E10}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
